--- a/plantillas/SIMANFOR_inventory_template-EN-data_Ppinaster_IBEROPT.xlsx
+++ b/plantillas/SIMANFOR_inventory_template-EN-data_Ppinaster_IBEROPT.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\iuFOR_trabajo\Proyectos\IFN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iuFOR_trabajo\Repositorios\LINUX\simanfor\inventarios\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F3B3BB-27CE-415C-9581-F746BB766A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC912019-CE6A-4047-8407-EF6112A36A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Metadata" sheetId="1" r:id="rId1"/>
-    <sheet name="Plots" sheetId="2" r:id="rId2"/>
-    <sheet name="Trees" sheetId="3" r:id="rId3"/>
+    <sheet name="Plots" sheetId="2" r:id="rId1"/>
+    <sheet name="Trees" sheetId="3" r:id="rId2"/>
+    <sheet name="Metadata" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2">Trees!$A$1:$Q$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">Trees!$A$1:$Q$49</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -994,12 +994,359 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMJ2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
+      <c r="AMC1" s="21"/>
+    </row>
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="25">
+        <v>26</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="G2" s="25">
+        <v>10</v>
+      </c>
+      <c r="H2" s="27">
+        <v>51.071052849932627</v>
+      </c>
+      <c r="I2" s="27">
+        <v>2.2313551111111112</v>
+      </c>
+      <c r="J2" s="27">
+        <v>7.7257617728531853</v>
+      </c>
+      <c r="K2" s="28"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Y2" s="30">
+        <v>-1.5429263674843501</v>
+      </c>
+      <c r="Z2" s="30">
+        <v>39.658999889566303</v>
+      </c>
+      <c r="AMD2" s="30"/>
+      <c r="AME2" s="30"/>
+      <c r="AMF2" s="30"/>
+      <c r="AMG2" s="30"/>
+      <c r="AMH2" s="30"/>
+      <c r="AMI2" s="30"/>
+      <c r="AMJ2" s="30"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="zHfdTz+jCatcqDK13UqTLC4klQvVdqy5NOaL3kpHrPDwpD/RvOGPOjUOoZ5u8/CdxIenKljSjD3LXWCiddDGFQ==" saltValue="7ySoQDvYdIczaeIw+78VqA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <protectedRanges>
+    <protectedRange sqref="A2:XFD1048576" name="Range1"/>
+  </protectedRanges>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AMA4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:R4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1015" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="ALS1" s="21"/>
+      <c r="ALT1" s="21"/>
+      <c r="ALU1" s="21"/>
+      <c r="ALV1" s="21"/>
+      <c r="ALW1" s="21"/>
+      <c r="ALX1" s="21"/>
+      <c r="ALY1" s="21"/>
+      <c r="ALZ1" s="21"/>
+      <c r="AMA1" s="21"/>
+    </row>
+    <row r="2" spans="1:1015" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="22">
+        <v>26</v>
+      </c>
+      <c r="E2" s="31">
+        <v>14.147106052612919</v>
+      </c>
+      <c r="H2" s="31">
+        <v>24.2</v>
+      </c>
+      <c r="I2" s="23">
+        <v>8</v>
+      </c>
+      <c r="Q2">
+        <v>-1.542847125537566</v>
+      </c>
+      <c r="R2">
+        <v>39.658998955687693</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1015" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="22">
+        <v>26</v>
+      </c>
+      <c r="E3" s="31">
+        <v>31.83098861837907</v>
+      </c>
+      <c r="H3" s="31">
+        <v>17.8</v>
+      </c>
+      <c r="I3" s="23">
+        <v>7</v>
+      </c>
+      <c r="Q3">
+        <v>-1.542828622796756</v>
+      </c>
+      <c r="R3">
+        <v>39.659004129553153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1015" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="22">
+        <v>24</v>
+      </c>
+      <c r="E4" s="31">
+        <v>5.0929581789406511</v>
+      </c>
+      <c r="H4" s="31">
+        <v>44.4</v>
+      </c>
+      <c r="I4" s="23">
+        <v>11.5</v>
+      </c>
+      <c r="Q4">
+        <v>-1.54265572744488</v>
+      </c>
+      <c r="R4">
+        <v>39.659017075067808</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="nbkH46ALQA1I2r1SckLzs9q9Yd3HA0yt325Uy9C2Ll9jnwuNjuTPfW/A8hnnh8vgA6x5YHZqEYA51eT/JKN6Cw==" saltValue="TKXS8IP40kjFUDe5Q8L+iw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <protectedRanges>
+    <protectedRange sqref="A2:XFD1048576" name="Range1"/>
+  </protectedRanges>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1048"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4574,351 +4921,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMJ2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z1" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AMC1" s="21"/>
-    </row>
-    <row r="2" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="25">
-        <v>26</v>
-      </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="G2" s="25">
-        <v>10</v>
-      </c>
-      <c r="H2" s="27">
-        <v>51.071052849932627</v>
-      </c>
-      <c r="I2" s="27">
-        <v>2.2313551111111112</v>
-      </c>
-      <c r="J2" s="27">
-        <v>7.7257617728531853</v>
-      </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Y2" s="30">
-        <v>-1.5429263674843501</v>
-      </c>
-      <c r="Z2" s="30">
-        <v>39.658999889566303</v>
-      </c>
-      <c r="AMD2" s="30"/>
-      <c r="AME2" s="30"/>
-      <c r="AMF2" s="30"/>
-      <c r="AMG2" s="30"/>
-      <c r="AMH2" s="30"/>
-      <c r="AMI2" s="30"/>
-      <c r="AMJ2" s="30"/>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zHfdTz+jCatcqDK13UqTLC4klQvVdqy5NOaL3kpHrPDwpD/RvOGPOjUOoZ5u8/CdxIenKljSjD3LXWCiddDGFQ==" saltValue="7ySoQDvYdIczaeIw+78VqA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <protectedRanges>
-    <protectedRange sqref="A2:XFD1048576" name="Range1"/>
-  </protectedRanges>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AMA4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:R4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1015" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="ALS1" s="21"/>
-      <c r="ALT1" s="21"/>
-      <c r="ALU1" s="21"/>
-      <c r="ALV1" s="21"/>
-      <c r="ALW1" s="21"/>
-      <c r="ALX1" s="21"/>
-      <c r="ALY1" s="21"/>
-      <c r="ALZ1" s="21"/>
-      <c r="AMA1" s="21"/>
-    </row>
-    <row r="2" spans="1:1015" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="22">
-        <v>26</v>
-      </c>
-      <c r="E2" s="31">
-        <v>14.147106052612919</v>
-      </c>
-      <c r="H2" s="31">
-        <v>24.2</v>
-      </c>
-      <c r="I2" s="23">
-        <v>8</v>
-      </c>
-      <c r="Q2">
-        <v>-1.542847125537566</v>
-      </c>
-      <c r="R2">
-        <v>39.658998955687693</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1015" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="22">
-        <v>26</v>
-      </c>
-      <c r="E3" s="31">
-        <v>31.83098861837907</v>
-      </c>
-      <c r="H3" s="31">
-        <v>17.8</v>
-      </c>
-      <c r="I3" s="23">
-        <v>7</v>
-      </c>
-      <c r="Q3">
-        <v>-1.542828622796756</v>
-      </c>
-      <c r="R3">
-        <v>39.659004129553153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1015" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="22">
-        <v>24</v>
-      </c>
-      <c r="E4" s="31">
-        <v>5.0929581789406511</v>
-      </c>
-      <c r="H4" s="31">
-        <v>44.4</v>
-      </c>
-      <c r="I4" s="23">
-        <v>11.5</v>
-      </c>
-      <c r="Q4">
-        <v>-1.54265572744488</v>
-      </c>
-      <c r="R4">
-        <v>39.659017075067808</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nbkH46ALQA1I2r1SckLzs9q9Yd3HA0yt325Uy9C2Ll9jnwuNjuTPfW/A8hnnh8vgA6x5YHZqEYA51eT/JKN6Cw==" saltValue="TKXS8IP40kjFUDe5Q8L+iw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <protectedRanges>
-    <protectedRange sqref="A2:XFD1048576" name="Range1"/>
-  </protectedRanges>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>